--- a/indicadores/tablas/430301.xlsx
+++ b/indicadores/tablas/430301.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -60,12 +60,6 @@
     <t xml:space="preserve">Salud</t>
   </si>
   <si>
-    <t xml:space="preserve">DIMENSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calidad</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONINDICADOR</t>
   </si>
   <si>
@@ -88,6 +82,18 @@
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de consultas no urgentes en instituciones prestadoras del SNIS / Cantidad de consultas urgentes en instituciones prestadoras del SNIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPOIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en SINADI - MSP</t>
   </si>
 </sst>
 </file>
@@ -608,6 +614,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/indicadores/tablas/430301.xlsx
+++ b/indicadores/tablas/430301.xlsx
@@ -423,7 +423,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -556,7 +556,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/430301.xlsx
+++ b/indicadores/tablas/430301.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -48,6 +48,12 @@
     <t xml:space="preserve">2018</t>
   </si>
   <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -75,7 +81,7 @@
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador mide la razón de las consultas médicas no urgentes sobre las consultas médicas urgentes y busca reflejar el control periódico, la prevención y detección temprana de las afecciones de salud.</t>
+    <t xml:space="preserve">El indicador mide la razón de las consultas médicas no urgentes sobre las consultas médicas urgentes y busca reflejar el control periódico, la prevención y detección temprana de las afecciones de salud. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>
@@ -93,7 +99,7 @@
     <t xml:space="preserve">CITA</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en SINADI - MSP</t>
+    <t xml:space="preserve">UMAD con base en SINADI - MSP (*2020 datos preliminares)</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -542,6 +548,40 @@
       </c>
       <c r="E7" t="n">
         <v>4.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -556,70 +596,70 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/430301.xlsx
+++ b/indicadores/tablas/430301.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -30,82 +30,97 @@
     <t xml:space="preserve">Total SNIS</t>
   </si>
   <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
     <t xml:space="preserve">2012</t>
   </si>
   <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razón de consultas no urgentes / consultas urgentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Salud</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
+    <t xml:space="preserve">conindicador</t>
   </si>
   <si>
     <t xml:space="preserve">Razón de consultas no urgentes/ consultas urgentes</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razón Consultas No Urgentes/ Consultas Urgentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide la razón de las consultas médicas no urgentes sobre las consultas médicas urgentes y busca reflejar el control periódico, la prevención y detección temprana de las afecciones de salud. El Total SNIS es el promedio ponderado por cantidad de afiliados de cada tipo de prestador.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de consultas no urgentes en instituciones prestadoras del SNIS / Cantidad de consultas urgentes en instituciones prestadoras del SNIS)</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMAD con base en SINADI - MSP (*2020 datos preliminares)</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en SINADI - MSP (*2022 datos del primer semestre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -424,12 +439,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -453,16 +468,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="C2" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="E2" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +485,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="C3" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="D3" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="E3" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="C4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="E4" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +519,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C5" t="n">
         <v>2.3</v>
       </c>
       <c r="D5" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="E5" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
@@ -521,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="C6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D6" t="n">
         <v>5.6</v>
@@ -538,10 +553,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D7" t="n">
         <v>5.6</v>
@@ -555,16 +570,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="C8" t="n">
         <v>2.3</v>
       </c>
       <c r="D8" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="E8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +587,50 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D9" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="E9" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -591,75 +640,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
